--- a/report/xxxxxx_テスト結果.xlsx
+++ b/report/xxxxxx_テスト結果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0999F4-6798-4622-82E2-A16F4A354085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2520" yWindow="5760" windowWidth="17070" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ケース1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,10 +71,287 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141941</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141941</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7745233-ECA3-8A39-AF8D-2D0AC7D3C3D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="410882"/>
+          <a:ext cx="0" cy="530412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0A4401-1DBE-5F41-2C6E-14BAB862A985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1217706" y="388471"/>
+          <a:ext cx="1284941" cy="500529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104589</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>164354</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED897087-4380-2DF9-0166-037ED8655700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2898589" y="321235"/>
+          <a:ext cx="2091765" cy="567764"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58690"/>
+            <a:gd name="adj2" fmla="val 34869"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>あああ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E08518-6462-4295-A93D-2E7CA968FA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="1001059"/>
+          <a:ext cx="851646" cy="470646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -111,9 +389,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +461,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -356,25 +634,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="52" width="3.625" customWidth="1"/>
+    <col min="1" max="52" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -532,7 +819,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -541,20 +828,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>